--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/3_Afyonkarahisar_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/3_Afyonkarahisar_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4E34F1-576C-43EC-A49D-B54868B67FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45172E5C-26CB-4D3F-A111-EB841D6CCD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{A74E53E8-CB24-40B7-9F98-634EE632032E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{8F7922F2-EC8B-4399-8CB0-6EC928229254}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -944,18 +944,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{4FCB3107-2B69-4C1F-8AAC-DCDAC57C1D75}"/>
+    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{C400D779-CC32-4F3B-9368-3FA92FD18AA7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0A8BC3E8-FD8B-44F0-8E53-F41461BB599F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{98CB1763-1354-44BA-BE25-BB751384B04C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F22E1449-2311-452C-B1B0-692D55A80AB1}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BBCAD921-5318-4DA2-AF75-6ACCD289BB62}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{44F27096-DDDF-4C38-9A57-144005B42F19}"/>
-    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{EA2AF904-FA04-4471-B467-FCCD55056A6A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{63CEB400-F767-4C89-85D2-CC4D7B3C97F9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{2D8BEBEE-2D95-4092-B9CF-DBC8B6BE147A}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{CD003393-29D6-4EBF-9C51-1E3F58414CF5}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{3A637764-77DF-4ED8-8E86-9B5B9DD4EA05}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BDA9A5AE-6F1C-44C8-AA01-94DD81059703}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3893D188-7000-4B11-8023-FE08AE7AEFBF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{17288561-D020-4CE1-8750-4E32519E1543}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{860D78BB-17F5-4F32-9A91-82C95EA97975}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{1BDF9BF2-53FA-4662-992D-FF1E5B332409}"/>
+    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{275F3B43-C01D-494D-BE71-8E60FFD4DC8E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{016F3DFD-A3D9-4A5B-BD3B-7DCC967DB630}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{22D8AA2B-A6C9-455C-A50F-B3A94A280DFF}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{0D79294A-D6D6-4067-87BA-D6C3A44B167B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{ACB44707-D0CE-4414-B944-41321BA4EF9E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0496A66-DEC0-4F4B-A7AD-3559B4BBE837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD9B09-2A6F-4D31-865B-47638C0E0018}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2664,7 +2664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F4FC05-44AB-4FE6-9760-7AEAC2C62C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BFFE17-711D-4E59-8A35-2B5EF21F7444}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BB011D-D4A7-4F9F-86BD-1AA3E9123EF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A57230C-BB66-4A8E-91AF-C3C4566D80A6}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -5252,7 +5252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481144ED-AAF4-4E1D-94FC-D8807EFEA197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6AD248-4516-4A5A-A2AC-9FF581F785CB}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -6531,7 +6531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A2392A-6DD2-419B-8CD4-84C21BD5D5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FEF538-E537-4BE0-A9BD-C8E7EB62A274}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7865,7 +7865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712F6E9C-9A8E-4C29-93AB-7FF97D244CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD38627-E145-4EDB-9172-8210A48ED827}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9199,7 +9199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19718AD0-FC8D-47B9-9509-00B69AA702BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B118B38-F3B5-4DDF-BBF5-4A391424C6A4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10533,7 +10533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0504FA3-94B2-48C2-950D-A9D52D6048B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78172172-1AD2-4DF5-A8C4-20ED4D1FB997}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11867,7 +11867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD77E8-187A-49F5-B233-64D0E0D4C8B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE6FFF9-0386-42EF-AD4D-73D1E5747341}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13201,7 +13201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846832A5-0832-4FD0-B5D8-EBA18A98F602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502E29DA-1513-4F56-885E-E612F073B189}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14529,7 +14529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09B682D-69F2-4F22-AC9A-B7201B816E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF1E3A7-7882-43A0-86E7-D864247C7E41}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15847,7 +15847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9A95A0-9A43-4ACD-ACBA-7E6D7C5AC3D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95028388-4854-4ADC-BE14-2B5D00CBCA0C}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
